--- a/data/negative_signals/Indirectly connected (A-X-B) - Oxazepam - Anaphylactic shock.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Oxazepam - Anaphylactic shock.xlsx
@@ -173,100 +173,1630 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>742136</t>
+  </si>
+  <si>
+    <t>anaphylaxis</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>51515784</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>53805767</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>93710034</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>51718650</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>51533630</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>76908665</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>61940527</t>
+  </si>
+  <si>
+    <t>93798202</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>57119289</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51552305</t>
+  </si>
+  <si>
+    <t>57446710</t>
+  </si>
+  <si>
+    <t>719023</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>55993315</t>
+  </si>
+  <si>
+    <t>51426987</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>57119134</t>
+  </si>
+  <si>
+    <t>118254780</t>
+  </si>
+  <si>
+    <t>71015565</t>
+  </si>
+  <si>
+    <t>51312005</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>66807175</t>
+  </si>
+  <si>
+    <t>51519142</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>61004250</t>
+  </si>
+  <si>
+    <t>51815441</t>
+  </si>
+  <si>
+    <t>265708</t>
+  </si>
+  <si>
+    <t>succinylcholine</t>
+  </si>
+  <si>
+    <t>68118161</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>68117693</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>59111340</t>
+  </si>
+  <si>
+    <t>113149752</t>
+  </si>
+  <si>
+    <t>117994573</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>16457316</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>56106773</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>4028728</t>
+  </si>
+  <si>
+    <t>house mice</t>
+  </si>
+  <si>
+    <t>60068093</t>
+  </si>
+  <si>
+    <t>52141774</t>
+  </si>
+  <si>
+    <t>4035048</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>55992885</t>
+  </si>
+  <si>
+    <t>51264483</t>
+  </si>
+  <si>
+    <t>4041592</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>94409275</t>
+  </si>
+  <si>
+    <t>52890275</t>
+  </si>
+  <si>
+    <t>55719</t>
+  </si>
+  <si>
+    <t>plant extracts</t>
+  </si>
+  <si>
+    <t>128639403</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>15935629</t>
+  </si>
+  <si>
+    <t>15935635</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>15239394</t>
+  </si>
+  <si>
+    <t>40108820</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>139736</t>
+  </si>
+  <si>
+    <t>gastric ulcer</t>
+  </si>
+  <si>
+    <t>15239441</t>
+  </si>
+  <si>
+    <t>58415928</t>
+  </si>
+  <si>
+    <t>736321</t>
+  </si>
+  <si>
+    <t>cimetidine</t>
+  </si>
+  <si>
+    <t>65016261</t>
+  </si>
+  <si>
+    <t>67489165</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>65295764</t>
+  </si>
+  <si>
+    <t>14223903</t>
+  </si>
+  <si>
+    <t>14223884</t>
+  </si>
+  <si>
+    <t>61201943</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>721203</t>
+  </si>
+  <si>
+    <t>coronary thrombosis</t>
+  </si>
+  <si>
+    <t>15239145</t>
+  </si>
+  <si>
+    <t>69741741</t>
+  </si>
+  <si>
+    <t>591052</t>
+  </si>
+  <si>
+    <t>pre-eclampsia</t>
+  </si>
+  <si>
+    <t>15239329</t>
+  </si>
+  <si>
+    <t>123653173</t>
+  </si>
+  <si>
+    <t>5793192</t>
+  </si>
+  <si>
+    <t>steroids</t>
+  </si>
+  <si>
+    <t>68038926</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>68039205</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>68037587</t>
+  </si>
+  <si>
+    <t>132682263</t>
+  </si>
+  <si>
+    <t>16443833</t>
+  </si>
+  <si>
+    <t>132996112</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>559349</t>
+  </si>
+  <si>
+    <t>adverse reaction to drug</t>
+  </si>
+  <si>
+    <t>15239162</t>
+  </si>
+  <si>
+    <t>96489263</t>
+  </si>
+  <si>
+    <t>81675919</t>
+  </si>
+  <si>
+    <t>550031</t>
+  </si>
+  <si>
+    <t>pancuronium</t>
+  </si>
+  <si>
+    <t>68118272</t>
+  </si>
+  <si>
+    <t>68117547</t>
+  </si>
+  <si>
+    <t>56917770</t>
+  </si>
+  <si>
+    <t>15330879</t>
+  </si>
+  <si>
+    <t>477234</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>130181246</t>
+  </si>
+  <si>
+    <t>130182202</t>
+  </si>
+  <si>
+    <t>111083951</t>
+  </si>
+  <si>
+    <t>14422224</t>
+  </si>
+  <si>
+    <t>4041480</t>
+  </si>
+  <si>
+    <t>dipyridamole</t>
+  </si>
+  <si>
+    <t>61925138</t>
+  </si>
+  <si>
+    <t>15101029</t>
+  </si>
+  <si>
+    <t>95436513</t>
+  </si>
+  <si>
+    <t>4035605</t>
+  </si>
+  <si>
+    <t>isoniazid</t>
+  </si>
+  <si>
+    <t>52169698</t>
+  </si>
+  <si>
+    <t>54140336</t>
+  </si>
+  <si>
+    <t>13163776</t>
+  </si>
+  <si>
+    <t>4034775</t>
+  </si>
+  <si>
+    <t>ifosfamide</t>
+  </si>
+  <si>
+    <t>59997801</t>
+  </si>
+  <si>
+    <t>12925983</t>
+  </si>
+  <si>
+    <t>4028698</t>
+  </si>
+  <si>
+    <t>morphine</t>
+  </si>
+  <si>
+    <t>76988640</t>
+  </si>
+  <si>
+    <t>60068242</t>
+  </si>
+  <si>
+    <t>57712217</t>
+  </si>
+  <si>
+    <t>51965686</t>
+  </si>
+  <si>
+    <t>14642024</t>
+  </si>
+  <si>
+    <t>60850261</t>
+  </si>
+  <si>
+    <t>4028185</t>
+  </si>
+  <si>
+    <t>mother (person)</t>
+  </si>
+  <si>
+    <t>51798924</t>
+  </si>
+  <si>
+    <t>86032182</t>
+  </si>
+  <si>
+    <t>67335318</t>
+  </si>
+  <si>
+    <t>97499046</t>
+  </si>
+  <si>
+    <t>282421</t>
+  </si>
+  <si>
+    <t>monkeys</t>
+  </si>
+  <si>
+    <t>84620374</t>
+  </si>
+  <si>
+    <t>51852576</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>57131846</t>
+  </si>
+  <si>
+    <t>53517904</t>
+  </si>
+  <si>
+    <t>132214887</t>
+  </si>
+  <si>
+    <t>64242639</t>
+  </si>
+  <si>
+    <t>5792464</t>
+  </si>
+  <si>
+    <t>elderly (population group)</t>
+  </si>
+  <si>
+    <t>51794229</t>
+  </si>
+  <si>
+    <t>81281506</t>
+  </si>
+  <si>
+    <t>4740228</t>
+  </si>
+  <si>
+    <t>voluntary workers</t>
+  </si>
+  <si>
+    <t>52275957</t>
+  </si>
+  <si>
+    <t>76136217</t>
+  </si>
+  <si>
+    <t>62179613</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>56619642</t>
+  </si>
+  <si>
+    <t>51597523</t>
+  </si>
+  <si>
+    <t>40108942</t>
+  </si>
+  <si>
+    <t>4034863</t>
+  </si>
+  <si>
+    <t>equus caballus</t>
+  </si>
+  <si>
+    <t>59381554</t>
+  </si>
+  <si>
+    <t>52521088</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>52316904</t>
+  </si>
+  <si>
+    <t>52263183</t>
+  </si>
+  <si>
+    <t>72089804</t>
+  </si>
+  <si>
+    <t>51552263</t>
+  </si>
+  <si>
+    <t>3815005</t>
+  </si>
+  <si>
+    <t>premedication</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>62019935</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>68481624</t>
+  </si>
+  <si>
+    <t>68898239</t>
+  </si>
+  <si>
+    <t>81625203</t>
+  </si>
+  <si>
+    <t>67234222</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>3814288</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>72761205</t>
+  </si>
+  <si>
+    <t>52698165</t>
+  </si>
+  <si>
+    <t>320774</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>55843629</t>
+  </si>
+  <si>
+    <t>54007859</t>
+  </si>
+  <si>
+    <t>132939090</t>
+  </si>
+  <si>
+    <t>does not augment</t>
+  </si>
+  <si>
+    <t>4785189</t>
+  </si>
+  <si>
+    <t>rats, inbred bn</t>
+  </si>
+  <si>
+    <t>63675904</t>
+  </si>
+  <si>
+    <t>73001195</t>
+  </si>
+  <si>
+    <t>4724712</t>
+  </si>
+  <si>
+    <t>aggressive behavior</t>
+  </si>
+  <si>
+    <t>81251147</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>40108709</t>
+  </si>
+  <si>
+    <t>42731</t>
+  </si>
+  <si>
+    <t>mice, transgenic</t>
+  </si>
+  <si>
+    <t>70419969</t>
+  </si>
+  <si>
+    <t>56139781</t>
+  </si>
+  <si>
+    <t>4047989</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>103818257</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>55994645</t>
+  </si>
+  <si>
+    <t>72043289</t>
+  </si>
+  <si>
+    <t>4034811</t>
+  </si>
+  <si>
+    <t>hypothermia, natural</t>
+  </si>
+  <si>
+    <t>102672206</t>
+  </si>
+  <si>
+    <t>40108802</t>
+  </si>
+  <si>
+    <t>3814239</t>
+  </si>
+  <si>
+    <t>rodent</t>
+  </si>
+  <si>
+    <t>97266266</t>
+  </si>
+  <si>
+    <t>90904982</t>
+  </si>
+  <si>
+    <t>2449038</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>51922449</t>
+  </si>
+  <si>
+    <t>83621945</t>
+  </si>
+  <si>
+    <t>5802726</t>
+  </si>
+  <si>
+    <t>serotonin</t>
+  </si>
+  <si>
+    <t>55591832</t>
+  </si>
+  <si>
+    <t>57071311</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>51368457</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>53929558</t>
+  </si>
+  <si>
+    <t>4841373</t>
+  </si>
+  <si>
+    <t>radioimmunoassay</t>
+  </si>
+  <si>
+    <t>51950011</t>
+  </si>
+  <si>
+    <t>54268566</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>5166696</t>
+  </si>
+  <si>
+    <t>albumins</t>
+  </si>
+  <si>
+    <t>56618662</t>
+  </si>
+  <si>
+    <t>74993486</t>
+  </si>
+  <si>
+    <t>57812576</t>
+  </si>
+  <si>
+    <t>130878210</t>
+  </si>
+  <si>
+    <t>63406754</t>
+  </si>
+  <si>
+    <t>484171</t>
+  </si>
+  <si>
+    <t>outpatients</t>
+  </si>
+  <si>
+    <t>55740642</t>
+  </si>
+  <si>
+    <t>51621496</t>
+  </si>
+  <si>
+    <t>90159649</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>69911149</t>
+  </si>
+  <si>
+    <t>76808729</t>
+  </si>
+  <si>
+    <t>56618939</t>
+  </si>
+  <si>
+    <t>85192618</t>
+  </si>
+  <si>
+    <t>51794501</t>
+  </si>
+  <si>
+    <t>56154975</t>
+  </si>
+  <si>
+    <t>51794301</t>
+  </si>
+  <si>
+    <t>52262961</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>52081720</t>
+  </si>
+  <si>
+    <t>51778207</t>
+  </si>
+  <si>
+    <t>51405737</t>
+  </si>
+  <si>
+    <t>63691017</t>
+  </si>
+  <si>
+    <t>68154577</t>
+  </si>
+  <si>
+    <t>96745865</t>
+  </si>
+  <si>
+    <t>3377652</t>
+  </si>
+  <si>
+    <t>hospitalized patients</t>
+  </si>
+  <si>
+    <t>56146129</t>
+  </si>
+  <si>
+    <t>101874022</t>
+  </si>
+  <si>
+    <t>83719316</t>
+  </si>
+  <si>
+    <t>2977165</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>79862852</t>
+  </si>
+  <si>
+    <t>100165556</t>
+  </si>
+  <si>
+    <t>125197550</t>
+  </si>
+  <si>
+    <t>101537967</t>
+  </si>
+  <si>
+    <t>2610294</t>
+  </si>
+  <si>
+    <t>allergic conditions</t>
+  </si>
+  <si>
+    <t>54067070</t>
+  </si>
+  <si>
+    <t>83721953</t>
+  </si>
+  <si>
+    <t>105241647</t>
+  </si>
+  <si>
+    <t>105241604</t>
+  </si>
+  <si>
+    <t>2395251</t>
+  </si>
+  <si>
+    <t>toxic effect</t>
+  </si>
+  <si>
+    <t>99635948</t>
+  </si>
+  <si>
+    <t>59997918</t>
+  </si>
+  <si>
+    <t>87906068</t>
+  </si>
+  <si>
+    <t>109709481</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>70611423</t>
+  </si>
+  <si>
+    <t>126482654</t>
+  </si>
+  <si>
+    <t>131675073</t>
+  </si>
+  <si>
+    <t>53250055</t>
+  </si>
+  <si>
+    <t>819438</t>
+  </si>
+  <si>
+    <t>plasma proteins</t>
+  </si>
+  <si>
+    <t>62002948</t>
+  </si>
+  <si>
+    <t>79381839</t>
+  </si>
+  <si>
+    <t>84984043</t>
+  </si>
+  <si>
+    <t>4041613</t>
+  </si>
+  <si>
+    <t>carbamazepine</t>
+  </si>
+  <si>
+    <t>60492076</t>
+  </si>
+  <si>
+    <t>58742760</t>
+  </si>
+  <si>
+    <t>4034800</t>
+  </si>
+  <si>
+    <t>hypnotics</t>
+  </si>
+  <si>
+    <t>86022339</t>
+  </si>
+  <si>
+    <t>54378979</t>
+  </si>
+  <si>
+    <t>61825011</t>
+  </si>
+  <si>
+    <t>56918312</t>
+  </si>
+  <si>
+    <t>4034755</t>
+  </si>
+  <si>
+    <t>hydrocortisone</t>
+  </si>
+  <si>
+    <t>63625635</t>
+  </si>
+  <si>
+    <t>83611654</t>
+  </si>
+  <si>
+    <t>111084219</t>
+  </si>
+  <si>
+    <t>63406289</t>
+  </si>
+  <si>
+    <t>118025738</t>
+  </si>
+  <si>
+    <t>93230094</t>
+  </si>
+  <si>
+    <t>53605247</t>
+  </si>
+  <si>
+    <t>12780581</t>
+  </si>
+  <si>
+    <t>4034342</t>
+  </si>
+  <si>
+    <t>gamma-aminobutyric acid</t>
+  </si>
+  <si>
+    <t>68651669</t>
+  </si>
+  <si>
+    <t>78760026</t>
+  </si>
+  <si>
+    <t>51388027</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>51797253</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>64656242</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>51797138</t>
+  </si>
+  <si>
+    <t>64656563</t>
+  </si>
+  <si>
+    <t>61463003</t>
+  </si>
+  <si>
+    <t>3781790</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>80862982</t>
+  </si>
+  <si>
+    <t>52985434</t>
+  </si>
+  <si>
+    <t>95044228</t>
+  </si>
+  <si>
+    <t>3773679</t>
+  </si>
+  <si>
+    <t>tension</t>
+  </si>
+  <si>
+    <t>68118056</t>
+  </si>
+  <si>
+    <t>64599270</t>
+  </si>
+  <si>
+    <t>2979103</t>
+  </si>
+  <si>
+    <t>inbred strain</t>
+  </si>
+  <si>
+    <t>62006785</t>
+  </si>
+  <si>
+    <t>53185608</t>
+  </si>
+  <si>
+    <t>2977591</t>
+  </si>
+  <si>
+    <t>control animal</t>
+  </si>
+  <si>
+    <t>95794868</t>
+  </si>
+  <si>
+    <t>62040583</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>54352011</t>
+  </si>
+  <si>
+    <t>60395640</t>
+  </si>
+  <si>
+    <t>71407490</t>
+  </si>
+  <si>
+    <t>51310354</t>
+  </si>
+  <si>
+    <t>233326</t>
+  </si>
+  <si>
+    <t>povidone</t>
+  </si>
+  <si>
+    <t>61798577</t>
+  </si>
+  <si>
+    <t>74688117</t>
+  </si>
+  <si>
+    <t>1074935</t>
+  </si>
+  <si>
+    <t>traumatic injury</t>
+  </si>
+  <si>
+    <t>59696425</t>
+  </si>
+  <si>
+    <t>51625836</t>
+  </si>
+  <si>
+    <t>108997982</t>
+  </si>
+  <si>
+    <t>58440138</t>
+  </si>
+  <si>
+    <t>66639995</t>
+  </si>
+  <si>
+    <t>753457</t>
+  </si>
+  <si>
+    <t>inpatient</t>
+  </si>
+  <si>
+    <t>56145387</t>
+  </si>
+  <si>
+    <t>96151069</t>
+  </si>
+  <si>
+    <t>90159697</t>
+  </si>
+  <si>
+    <t>133651325</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>51798884</t>
+  </si>
+  <si>
+    <t>53377806</t>
+  </si>
+  <si>
+    <t>97499090</t>
+  </si>
+  <si>
+    <t>6107601</t>
+  </si>
+  <si>
+    <t>expression procedure</t>
+  </si>
+  <si>
+    <t>71030747</t>
+  </si>
+  <si>
+    <t>99055600</t>
+  </si>
+  <si>
+    <t>116676103</t>
+  </si>
+  <si>
+    <t>65498082</t>
+  </si>
+  <si>
+    <t>58351</t>
+  </si>
+  <si>
+    <t>aging</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>51798379</t>
+  </si>
+  <si>
+    <t>81538023</t>
+  </si>
+  <si>
+    <t>5805792</t>
+  </si>
+  <si>
+    <t>diastasis</t>
+  </si>
+  <si>
+    <t>117640318</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>117640181</t>
+  </si>
+  <si>
+    <t>53425891</t>
+  </si>
+  <si>
+    <t>5699830</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>58330341</t>
+  </si>
+  <si>
+    <t>76913878</t>
+  </si>
+  <si>
+    <t>5699741</t>
+  </si>
+  <si>
+    <t>encephalopathies</t>
+  </si>
+  <si>
+    <t>68728801</t>
+  </si>
+  <si>
+    <t>89473481</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>54460193</t>
+  </si>
+  <si>
+    <t>80076721</t>
+  </si>
+  <si>
+    <t>54238689</t>
+  </si>
+  <si>
+    <t>121567268</t>
+  </si>
+  <si>
+    <t>63538550</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>99922109</t>
+  </si>
+  <si>
+    <t>51637822</t>
+  </si>
+  <si>
+    <t>53305189</t>
+  </si>
+  <si>
+    <t>86218751</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>52336018</t>
+  </si>
+  <si>
+    <t>60747671</t>
+  </si>
+  <si>
+    <t>131092359</t>
+  </si>
+  <si>
+    <t>52306239</t>
+  </si>
+  <si>
     <t>5647992</t>
   </si>
   <si>
     <t>cavia</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>742136</t>
-  </si>
-  <si>
-    <t>anaphylaxis</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>123518937</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117533447</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>140424872</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>118506080</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>118563576</t>
-  </si>
-  <si>
-    <t>138485546</t>
-  </si>
-  <si>
-    <t>117769757</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>123519011</t>
-  </si>
-  <si>
-    <t>159993545</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>125474520</t>
-  </si>
-  <si>
-    <t>117624586</t>
-  </si>
-  <si>
-    <t>123829800</t>
-  </si>
-  <si>
-    <t>719023</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>118387045</t>
-  </si>
-  <si>
-    <t>117634960</t>
+    <t>57119243</t>
+  </si>
+  <si>
+    <t>74100465</t>
+  </si>
+  <si>
+    <t>51340351</t>
+  </si>
+  <si>
+    <t>5264642</t>
+  </si>
+  <si>
+    <t>binding sites</t>
+  </si>
+  <si>
+    <t>58137744</t>
+  </si>
+  <si>
+    <t>72174912</t>
+  </si>
+  <si>
+    <t>113022239</t>
+  </si>
+  <si>
+    <t>5103527</t>
+  </si>
+  <si>
+    <t>pulmonary surfactants</t>
+  </si>
+  <si>
+    <t>126411853</t>
+  </si>
+  <si>
+    <t>65191781</t>
+  </si>
+  <si>
+    <t>5077302</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>85096569</t>
+  </si>
+  <si>
+    <t>133825110</t>
+  </si>
+  <si>
+    <t>60586913</t>
+  </si>
+  <si>
+    <t>4877522</t>
+  </si>
+  <si>
+    <t>amphetamine</t>
+  </si>
+  <si>
+    <t>73776485</t>
+  </si>
+  <si>
+    <t>91029324</t>
+  </si>
+  <si>
+    <t>465111</t>
+  </si>
+  <si>
+    <t>lung diseases</t>
+  </si>
+  <si>
+    <t>95694494</t>
+  </si>
+  <si>
+    <t>59404121</t>
+  </si>
+  <si>
+    <t>132028309</t>
+  </si>
+  <si>
+    <t>45058</t>
+  </si>
+  <si>
+    <t>dimethyl sulfoxide</t>
+  </si>
+  <si>
+    <t>51508001</t>
+  </si>
+  <si>
+    <t>84276389</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>61990322</t>
+  </si>
+  <si>
+    <t>57712031</t>
+  </si>
+  <si>
+    <t>60233541</t>
+  </si>
+  <si>
+    <t>75651738</t>
+  </si>
+  <si>
+    <t>447781</t>
+  </si>
+  <si>
+    <t>fibrosis</t>
+  </si>
+  <si>
+    <t>59458237</t>
+  </si>
+  <si>
+    <t>57725336</t>
+  </si>
+  <si>
+    <t>129855497</t>
+  </si>
+  <si>
+    <t>431254</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>60068453</t>
+  </si>
+  <si>
+    <t>55992247</t>
+  </si>
+  <si>
+    <t>74665152</t>
+  </si>
+  <si>
+    <t>76869368</t>
+  </si>
+  <si>
+    <t>132939487</t>
+  </si>
+  <si>
+    <t>is not location of</t>
+  </si>
+  <si>
+    <t>4041791</t>
+  </si>
+  <si>
+    <t>eating</t>
+  </si>
+  <si>
+    <t>56841218</t>
+  </si>
+  <si>
+    <t>93302562</t>
+  </si>
+  <si>
+    <t>4041452</t>
+  </si>
+  <si>
+    <t>biogenic amines</t>
+  </si>
+  <si>
+    <t>61883311</t>
+  </si>
+  <si>
+    <t>51932367</t>
+  </si>
+  <si>
+    <t>4033963</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>83598357</t>
+  </si>
+  <si>
+    <t>55388142</t>
+  </si>
+  <si>
+    <t>4028714</t>
+  </si>
+  <si>
+    <t>metronidazole</t>
+  </si>
+  <si>
+    <t>68975453</t>
+  </si>
+  <si>
+    <t>73350558</t>
+  </si>
+  <si>
+    <t>4028126</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>55992622</t>
+  </si>
+  <si>
+    <t>55634199</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>67089719</t>
+  </si>
+  <si>
+    <t>52786035</t>
+  </si>
+  <si>
+    <t>51798762</t>
+  </si>
+  <si>
+    <t>103556259</t>
+  </si>
+  <si>
+    <t>51659045</t>
+  </si>
+  <si>
+    <t>57104011</t>
+  </si>
+  <si>
+    <t>61202367</t>
+  </si>
+  <si>
+    <t>51315373</t>
+  </si>
+  <si>
+    <t>4027328</t>
+  </si>
+  <si>
+    <t>methylprednisolone</t>
+  </si>
+  <si>
+    <t>85417725</t>
+  </si>
+  <si>
+    <t>67864454</t>
+  </si>
+  <si>
+    <t>93233673</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>56143392</t>
+  </si>
+  <si>
+    <t>69607047</t>
+  </si>
+  <si>
+    <t>3777320</t>
+  </si>
+  <si>
+    <t>adolescent (age group)</t>
+  </si>
+  <si>
+    <t>56750464</t>
+  </si>
+  <si>
+    <t>53805823</t>
+  </si>
+  <si>
+    <t>53804549</t>
+  </si>
+  <si>
+    <t>119977511</t>
+  </si>
+  <si>
+    <t>81044273</t>
   </si>
   <si>
     <t>3763552</t>
@@ -275,913 +1805,142 @@
     <t>individual</t>
   </si>
   <si>
-    <t>167298121</t>
-  </si>
-  <si>
-    <t>125450750</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>138376861</t>
-  </si>
-  <si>
-    <t>118125618</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>137426264</t>
-  </si>
-  <si>
-    <t>123518844</t>
-  </si>
-  <si>
-    <t>184395901</t>
-  </si>
-  <si>
-    <t>117506050</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>133274124</t>
-  </si>
-  <si>
-    <t>117743281</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>143245083</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>118505865</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>122999492</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>118012069</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>151565767</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>136395010</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>122530163</t>
-  </si>
-  <si>
-    <t>118011788</t>
-  </si>
-  <si>
-    <t>118338948</t>
-  </si>
-  <si>
-    <t>130090770</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>117621097</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117970739</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>162950489</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>134507364</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>127388048</t>
-  </si>
-  <si>
-    <t>118052127</t>
-  </si>
-  <si>
-    <t>265708</t>
-  </si>
-  <si>
-    <t>succinylcholine</t>
-  </si>
-  <si>
-    <t>134568232</t>
-  </si>
-  <si>
-    <t>134567556</t>
-  </si>
-  <si>
-    <t>184192848</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>82705747</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>125568850</t>
-  </si>
-  <si>
-    <t>179375303</t>
-  </si>
-  <si>
-    <t>122535134</t>
-  </si>
-  <si>
-    <t>4028728</t>
-  </si>
-  <si>
-    <t>house mice</t>
-  </si>
-  <si>
-    <t>126475021</t>
-  </si>
-  <si>
-    <t>118401735</t>
-  </si>
-  <si>
-    <t>4035048</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>118386716</t>
-  </si>
-  <si>
-    <t>117457571</t>
-  </si>
-  <si>
-    <t>4041592</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>160601247</t>
-  </si>
-  <si>
-    <t>119173218</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>118016287</t>
-  </si>
-  <si>
-    <t>133436319</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>119086267</t>
-  </si>
-  <si>
-    <t>117705434</t>
-  </si>
-  <si>
-    <t>169774350</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>127605470</t>
-  </si>
-  <si>
-    <t>117514542</t>
-  </si>
-  <si>
-    <t>123527626</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>81495439</t>
-  </si>
-  <si>
-    <t>106297303</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>559349</t>
-  </si>
-  <si>
-    <t>adverse reaction to drug</t>
-  </si>
-  <si>
-    <t>81495207</t>
-  </si>
-  <si>
-    <t>148094792</t>
-  </si>
-  <si>
-    <t>162679616</t>
-  </si>
-  <si>
-    <t>139736</t>
-  </si>
-  <si>
-    <t>gastric ulcer</t>
-  </si>
-  <si>
-    <t>81495486</t>
-  </si>
-  <si>
-    <t>124797377</t>
-  </si>
-  <si>
-    <t>721203</t>
-  </si>
-  <si>
-    <t>coronary thrombosis</t>
-  </si>
-  <si>
-    <t>81495190</t>
-  </si>
-  <si>
-    <t>136166244</t>
-  </si>
-  <si>
-    <t>591052</t>
-  </si>
-  <si>
-    <t>pre-eclampsia</t>
-  </si>
-  <si>
-    <t>81495374</t>
-  </si>
-  <si>
-    <t>189857377</t>
-  </si>
-  <si>
-    <t>55719</t>
-  </si>
-  <si>
-    <t>plant extracts</t>
-  </si>
-  <si>
-    <t>194845228</t>
-  </si>
-  <si>
-    <t>82192099</t>
-  </si>
-  <si>
-    <t>82192101</t>
-  </si>
-  <si>
-    <t>477234</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>177276875</t>
-  </si>
-  <si>
-    <t>196369985</t>
-  </si>
-  <si>
-    <t>196369011</t>
-  </si>
-  <si>
-    <t>80633205</t>
-  </si>
-  <si>
-    <t>4041480</t>
-  </si>
-  <si>
-    <t>dipyridamole</t>
-  </si>
-  <si>
-    <t>128327356</t>
-  </si>
-  <si>
-    <t>161637263</t>
-  </si>
-  <si>
-    <t>81326268</t>
-  </si>
-  <si>
-    <t>4035605</t>
-  </si>
-  <si>
-    <t>isoniazid</t>
-  </si>
-  <si>
-    <t>118414481</t>
-  </si>
-  <si>
-    <t>120525753</t>
-  </si>
-  <si>
-    <t>79456566</t>
-  </si>
-  <si>
-    <t>4034775</t>
-  </si>
-  <si>
-    <t>ifosfamide</t>
-  </si>
-  <si>
-    <t>126439225</t>
-  </si>
-  <si>
-    <t>79251591</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>117847784</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>166121404</t>
-  </si>
-  <si>
-    <t>118584524</t>
-  </si>
-  <si>
-    <t>150718883</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>127170385</t>
-  </si>
-  <si>
-    <t>118603085</t>
-  </si>
-  <si>
-    <t>119622551</t>
-  </si>
-  <si>
-    <t>197294382</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>131055616</t>
-  </si>
-  <si>
-    <t>118014838</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>131055202</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>118014751</t>
-  </si>
-  <si>
-    <t>124487975</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>117731136</t>
-  </si>
-  <si>
-    <t>117925323</t>
-  </si>
-  <si>
-    <t>120105205</t>
-  </si>
-  <si>
-    <t>159903926</t>
-  </si>
-  <si>
-    <t>117750905</t>
-  </si>
-  <si>
-    <t>143253875</t>
-  </si>
-  <si>
-    <t>282421</t>
-  </si>
-  <si>
-    <t>monkeys</t>
-  </si>
-  <si>
-    <t>149118421</t>
-  </si>
-  <si>
-    <t>118087393</t>
-  </si>
-  <si>
-    <t>5792464</t>
-  </si>
-  <si>
-    <t>elderly (population group)</t>
-  </si>
-  <si>
-    <t>118011707</t>
-  </si>
-  <si>
-    <t>147677207</t>
-  </si>
-  <si>
-    <t>4740228</t>
-  </si>
-  <si>
-    <t>voluntary workers</t>
-  </si>
-  <si>
-    <t>118498866</t>
-  </si>
-  <si>
-    <t>128575221</t>
-  </si>
-  <si>
-    <t>142521885</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>119835677</t>
-  </si>
-  <si>
-    <t>123535547</t>
-  </si>
-  <si>
-    <t>198372508</t>
-  </si>
-  <si>
-    <t>127720152</t>
-  </si>
-  <si>
-    <t>4034863</t>
-  </si>
-  <si>
-    <t>equus caballus</t>
-  </si>
-  <si>
-    <t>125775662</t>
-  </si>
-  <si>
-    <t>118751581</t>
-  </si>
-  <si>
-    <t>550031</t>
-  </si>
-  <si>
-    <t>pancuronium</t>
-  </si>
-  <si>
-    <t>134567408</t>
-  </si>
-  <si>
-    <t>134568351</t>
-  </si>
-  <si>
-    <t>123295147</t>
-  </si>
-  <si>
-    <t>81603316</t>
-  </si>
-  <si>
-    <t>4028698</t>
-  </si>
-  <si>
-    <t>morphine</t>
-  </si>
-  <si>
-    <t>126475182</t>
-  </si>
-  <si>
-    <t>141101325</t>
-  </si>
-  <si>
-    <t>118196813</t>
-  </si>
-  <si>
-    <t>80895034</t>
-  </si>
-  <si>
-    <t>124079993</t>
-  </si>
-  <si>
-    <t>127259491</t>
-  </si>
-  <si>
-    <t>3815005</t>
-  </si>
-  <si>
-    <t>premedication</t>
-  </si>
-  <si>
-    <t>128413901</t>
-  </si>
-  <si>
-    <t>134928897</t>
-  </si>
-  <si>
-    <t>133717864</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>148025755</t>
-  </si>
-  <si>
-    <t>135341538</t>
-  </si>
-  <si>
-    <t>3814288</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>139242462</t>
-  </si>
-  <si>
-    <t>119005413</t>
-  </si>
-  <si>
-    <t>3377652</t>
-  </si>
-  <si>
-    <t>hospitalized patients</t>
-  </si>
-  <si>
-    <t>122521222</t>
-  </si>
-  <si>
-    <t>168070599</t>
-  </si>
-  <si>
-    <t>150137622</t>
-  </si>
-  <si>
-    <t>320774</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>122259987</t>
-  </si>
-  <si>
-    <t>199132178</t>
-  </si>
-  <si>
-    <t>does not augment</t>
-  </si>
-  <si>
-    <t>120381225</t>
-  </si>
-  <si>
-    <t>4785189</t>
-  </si>
-  <si>
-    <t>rats, inbred bn</t>
-  </si>
-  <si>
-    <t>130076456</t>
-  </si>
-  <si>
-    <t>139408845</t>
-  </si>
-  <si>
-    <t>4724712</t>
-  </si>
-  <si>
-    <t>aggressive behavior</t>
-  </si>
-  <si>
-    <t>147716754</t>
-  </si>
-  <si>
-    <t>106297187</t>
-  </si>
-  <si>
-    <t>42731</t>
-  </si>
-  <si>
-    <t>mice, transgenic</t>
-  </si>
-  <si>
-    <t>136774124</t>
-  </si>
-  <si>
-    <t>122560441</t>
-  </si>
-  <si>
-    <t>4047989</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>118388414</t>
-  </si>
-  <si>
-    <t>170036539</t>
-  </si>
-  <si>
-    <t>produces</t>
-  </si>
-  <si>
-    <t>138359595</t>
-  </si>
-  <si>
-    <t>4034811</t>
-  </si>
-  <si>
-    <t>hypothermia, natural</t>
-  </si>
-  <si>
-    <t>168858620</t>
-  </si>
-  <si>
-    <t>106297278</t>
-  </si>
-  <si>
-    <t>3814239</t>
-  </si>
-  <si>
-    <t>rodent</t>
-  </si>
-  <si>
-    <t>163462865</t>
-  </si>
-  <si>
-    <t>157192881</t>
-  </si>
-  <si>
-    <t>2449038</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>118140387</t>
-  </si>
-  <si>
-    <t>150026947</t>
-  </si>
-  <si>
-    <t>4841373</t>
-  </si>
-  <si>
-    <t>radioimmunoassay</t>
-  </si>
-  <si>
-    <t>118157644</t>
-  </si>
-  <si>
-    <t>120591256</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>123000141</t>
-  </si>
-  <si>
-    <t>117808168</t>
-  </si>
-  <si>
-    <t>106297421</t>
-  </si>
-  <si>
-    <t>736321</t>
-  </si>
-  <si>
-    <t>cimetidine</t>
-  </si>
-  <si>
-    <t>131681295</t>
-  </si>
-  <si>
-    <t>133892273</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>131359837</t>
-  </si>
-  <si>
-    <t>80446749</t>
-  </si>
-  <si>
-    <t>80446767</t>
-  </si>
-  <si>
-    <t>127626190</t>
-  </si>
-  <si>
-    <t>5166696</t>
-  </si>
-  <si>
-    <t>albumins</t>
-  </si>
-  <si>
-    <t>122999212</t>
-  </si>
-  <si>
-    <t>141379139</t>
-  </si>
-  <si>
-    <t>197067512</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>120958056</t>
-  </si>
-  <si>
-    <t>129797948</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>484171</t>
-  </si>
-  <si>
-    <t>outpatients</t>
-  </si>
-  <si>
-    <t>122127733</t>
-  </si>
-  <si>
-    <t>117845114</t>
-  </si>
-  <si>
-    <t>156348648</t>
-  </si>
-  <si>
-    <t>4034755</t>
-  </si>
-  <si>
-    <t>hydrocortisone</t>
-  </si>
-  <si>
-    <t>130017184</t>
-  </si>
-  <si>
-    <t>177277110</t>
-  </si>
-  <si>
-    <t>148108689</t>
-  </si>
-  <si>
-    <t>79141188</t>
-  </si>
-  <si>
-    <t>129797497</t>
-  </si>
-  <si>
-    <t>159427353</t>
-  </si>
-  <si>
-    <t>184235511</t>
-  </si>
-  <si>
-    <t>119936670</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>120686229</t>
-  </si>
-  <si>
-    <t>117508523</t>
-  </si>
-  <si>
-    <t>126795234</t>
-  </si>
-  <si>
-    <t>135251920</t>
-  </si>
-  <si>
-    <t>2610294</t>
-  </si>
-  <si>
-    <t>allergic conditions</t>
-  </si>
-  <si>
-    <t>120516838</t>
-  </si>
-  <si>
-    <t>171439987</t>
-  </si>
-  <si>
-    <t>171440035</t>
-  </si>
-  <si>
-    <t>150128525</t>
+    <t>101187589</t>
+  </si>
+  <si>
+    <t>51919195</t>
+  </si>
+  <si>
+    <t>59067837</t>
+  </si>
+  <si>
+    <t>71931223</t>
+  </si>
+  <si>
+    <t>3377529</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>121082180</t>
+  </si>
+  <si>
+    <t>56618799</t>
+  </si>
+  <si>
+    <t>75872012</t>
+  </si>
+  <si>
+    <t>300233</t>
+  </si>
+  <si>
+    <t>chlorides</t>
+  </si>
+  <si>
+    <t>110616670</t>
+  </si>
+  <si>
+    <t>65129422</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>64587335</t>
+  </si>
+  <si>
+    <t>64216136</t>
+  </si>
+  <si>
+    <t>278029</t>
+  </si>
+  <si>
+    <t>contraceptives, oral</t>
+  </si>
+  <si>
+    <t>68039405</t>
+  </si>
+  <si>
+    <t>68037835</t>
+  </si>
+  <si>
+    <t>68039106</t>
+  </si>
+  <si>
+    <t>63836561</t>
+  </si>
+  <si>
+    <t>126870021</t>
+  </si>
+  <si>
+    <t>273402</t>
+  </si>
+  <si>
+    <t>serum albumin, bovine</t>
+  </si>
+  <si>
+    <t>60845724</t>
+  </si>
+  <si>
+    <t>86089289</t>
+  </si>
+  <si>
+    <t>52816748</t>
+  </si>
+  <si>
+    <t>57227640</t>
+  </si>
+  <si>
+    <t>58278605</t>
+  </si>
+  <si>
+    <t>255998</t>
+  </si>
+  <si>
+    <t>nitric oxide synthase</t>
+  </si>
+  <si>
+    <t>108210821</t>
+  </si>
+  <si>
+    <t>64797971</t>
+  </si>
+  <si>
+    <t>2428153</t>
+  </si>
+  <si>
+    <t>albino mice</t>
+  </si>
+  <si>
+    <t>51508284</t>
+  </si>
+  <si>
+    <t>133904263</t>
+  </si>
+  <si>
+    <t>2396875</t>
+  </si>
+  <si>
+    <t>receptor</t>
+  </si>
+  <si>
+    <t>62007012</t>
+  </si>
+  <si>
+    <t>122946375</t>
+  </si>
+  <si>
+    <t>51508958</t>
+  </si>
+  <si>
+    <t>75677837</t>
+  </si>
+  <si>
+    <t>130637843</t>
   </si>
   <si>
     <t>217103</t>
@@ -1190,772 +1949,13 @@
     <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
   </si>
   <si>
-    <t>189702814</t>
-  </si>
-  <si>
-    <t>143173265</t>
-  </si>
-  <si>
-    <t>132158368</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>136931972</t>
-  </si>
-  <si>
-    <t>197876462</t>
-  </si>
-  <si>
-    <t>192673335</t>
-  </si>
-  <si>
-    <t>119614019</t>
-  </si>
-  <si>
-    <t>819438</t>
-  </si>
-  <si>
-    <t>plasma proteins</t>
-  </si>
-  <si>
-    <t>145772458</t>
-  </si>
-  <si>
-    <t>128440391</t>
-  </si>
-  <si>
-    <t>151406157</t>
-  </si>
-  <si>
-    <t>5793192</t>
-  </si>
-  <si>
-    <t>steroids</t>
-  </si>
-  <si>
-    <t>134438647</t>
-  </si>
-  <si>
-    <t>134437185</t>
-  </si>
-  <si>
-    <t>134438363</t>
-  </si>
-  <si>
-    <t>199187640</t>
-  </si>
-  <si>
-    <t>82692352</t>
-  </si>
-  <si>
-    <t>198875299</t>
-  </si>
-  <si>
-    <t>4041613</t>
-  </si>
-  <si>
-    <t>carbamazepine</t>
-  </si>
-  <si>
-    <t>126884200</t>
-  </si>
-  <si>
-    <t>125116343</t>
-  </si>
-  <si>
-    <t>4034800</t>
-  </si>
-  <si>
-    <t>hypnotics</t>
-  </si>
-  <si>
-    <t>128221111</t>
-  </si>
-  <si>
-    <t>120749943</t>
-  </si>
-  <si>
-    <t>150522320</t>
-  </si>
-  <si>
-    <t>123295461</t>
-  </si>
-  <si>
-    <t>4034342</t>
-  </si>
-  <si>
-    <t>gamma-aminobutyric acid</t>
-  </si>
-  <si>
-    <t>143023654</t>
-  </si>
-  <si>
-    <t>132252906</t>
-  </si>
-  <si>
-    <t>117572427</t>
-  </si>
-  <si>
-    <t>4028185</t>
-  </si>
-  <si>
-    <t>mother (person)</t>
-  </si>
-  <si>
-    <t>118016519</t>
-  </si>
-  <si>
-    <t>152407554</t>
-  </si>
-  <si>
-    <t>163689828</t>
-  </si>
-  <si>
-    <t>130773186</t>
-  </si>
-  <si>
-    <t>3773679</t>
-  </si>
-  <si>
-    <t>tension</t>
-  </si>
-  <si>
-    <t>134568094</t>
-  </si>
-  <si>
-    <t>130995380</t>
-  </si>
-  <si>
-    <t>2979103</t>
-  </si>
-  <si>
-    <t>inbred strain</t>
-  </si>
-  <si>
-    <t>125098687</t>
-  </si>
-  <si>
-    <t>119515417</t>
-  </si>
-  <si>
-    <t>2977591</t>
-  </si>
-  <si>
-    <t>control animal</t>
-  </si>
-  <si>
-    <t>162028379</t>
-  </si>
-  <si>
-    <t>128380868</t>
-  </si>
-  <si>
-    <t>2977165</t>
-  </si>
-  <si>
-    <t>detection</t>
-  </si>
-  <si>
-    <t>146260294</t>
-  </si>
-  <si>
-    <t>191409519</t>
-  </si>
-  <si>
-    <t>167753161</t>
-  </si>
-  <si>
-    <t>166384683</t>
-  </si>
-  <si>
-    <t>233326</t>
-  </si>
-  <si>
-    <t>povidone</t>
-  </si>
-  <si>
-    <t>124870922</t>
-  </si>
-  <si>
-    <t>141153183</t>
-  </si>
-  <si>
-    <t>1074935</t>
-  </si>
-  <si>
-    <t>traumatic injury</t>
-  </si>
-  <si>
-    <t>126083796</t>
-  </si>
-  <si>
-    <t>124845156</t>
-  </si>
-  <si>
-    <t>132998794</t>
-  </si>
-  <si>
-    <t>175189056</t>
-  </si>
-  <si>
-    <t>117819956</t>
-  </si>
-  <si>
-    <t>753457</t>
-  </si>
-  <si>
-    <t>inpatient</t>
-  </si>
-  <si>
-    <t>122520544</t>
-  </si>
-  <si>
-    <t>199843100</t>
-  </si>
-  <si>
-    <t>162382096</t>
-  </si>
-  <si>
-    <t>156348662</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>118016456</t>
-  </si>
-  <si>
-    <t>163689874</t>
-  </si>
-  <si>
-    <t>119699681</t>
-  </si>
-  <si>
-    <t>6107601</t>
-  </si>
-  <si>
-    <t>expression procedure</t>
-  </si>
-  <si>
-    <t>134841896</t>
-  </si>
-  <si>
-    <t>131852853</t>
-  </si>
-  <si>
-    <t>182872916</t>
-  </si>
-  <si>
-    <t>165269289</t>
-  </si>
-  <si>
-    <t>58351</t>
-  </si>
-  <si>
-    <t>aging</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>118015852</t>
-  </si>
-  <si>
-    <t>147936435</t>
-  </si>
-  <si>
-    <t>5805792</t>
-  </si>
-  <si>
-    <t>diastasis</t>
-  </si>
-  <si>
-    <t>183848987</t>
-  </si>
-  <si>
-    <t>183848873</t>
-  </si>
-  <si>
-    <t>119748866</t>
-  </si>
-  <si>
-    <t>5802726</t>
-  </si>
-  <si>
-    <t>serotonin</t>
-  </si>
-  <si>
-    <t>121981095</t>
-  </si>
-  <si>
-    <t>123456961</t>
-  </si>
-  <si>
-    <t>120241228</t>
-  </si>
-  <si>
-    <t>117557977</t>
-  </si>
-  <si>
-    <t>5699830</t>
-  </si>
-  <si>
-    <t>extraction</t>
-  </si>
-  <si>
-    <t>124820004</t>
-  </si>
-  <si>
-    <t>143279399</t>
-  </si>
-  <si>
-    <t>5699741</t>
-  </si>
-  <si>
-    <t>encephalopathies</t>
-  </si>
-  <si>
-    <t>135234541</t>
-  </si>
-  <si>
-    <t>155671103</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>146519197</t>
-  </si>
-  <si>
-    <t>187710565</t>
-  </si>
-  <si>
-    <t>120798855</t>
-  </si>
-  <si>
-    <t>120615342</t>
-  </si>
-  <si>
-    <t>129937408</t>
-  </si>
-  <si>
-    <t>5264642</t>
-  </si>
-  <si>
-    <t>binding sites</t>
-  </si>
-  <si>
-    <t>138490802</t>
-  </si>
-  <si>
-    <t>124547081</t>
-  </si>
-  <si>
-    <t>179248788</t>
-  </si>
-  <si>
-    <t>5103527</t>
-  </si>
-  <si>
-    <t>pulmonary surfactants</t>
-  </si>
-  <si>
-    <t>192564983</t>
-  </si>
-  <si>
-    <t>131648115</t>
-  </si>
-  <si>
-    <t>5077302</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>149593946</t>
-  </si>
-  <si>
-    <t>200018108</t>
-  </si>
-  <si>
-    <t>127070619</t>
-  </si>
-  <si>
-    <t>4877522</t>
-  </si>
-  <si>
-    <t>amphetamine</t>
-  </si>
-  <si>
-    <t>140184359</t>
-  </si>
-  <si>
-    <t>157192748</t>
-  </si>
-  <si>
-    <t>465111</t>
-  </si>
-  <si>
-    <t>lung diseases</t>
-  </si>
-  <si>
-    <t>161882177</t>
-  </si>
-  <si>
-    <t>198239720</t>
-  </si>
-  <si>
-    <t>125759726</t>
-  </si>
-  <si>
-    <t>45058</t>
-  </si>
-  <si>
-    <t>dimethyl sulfoxide</t>
-  </si>
-  <si>
-    <t>117707281</t>
-  </si>
-  <si>
-    <t>150750439</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>128442701</t>
-  </si>
-  <si>
-    <t>126715918</t>
-  </si>
-  <si>
-    <t>124107195</t>
-  </si>
-  <si>
-    <t>141986613</t>
-  </si>
-  <si>
-    <t>447781</t>
-  </si>
-  <si>
-    <t>fibrosis</t>
-  </si>
-  <si>
-    <t>124119624</t>
-  </si>
-  <si>
-    <t>125812137</t>
-  </si>
-  <si>
-    <t>196060049</t>
-  </si>
-  <si>
-    <t>431254</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>126475427</t>
-  </si>
-  <si>
-    <t>141143517</t>
-  </si>
-  <si>
-    <t>118385722</t>
-  </si>
-  <si>
-    <t>143356493</t>
-  </si>
-  <si>
-    <t>199132582</t>
-  </si>
-  <si>
-    <t>is not location of</t>
-  </si>
-  <si>
-    <t>4041791</t>
-  </si>
-  <si>
-    <t>eating</t>
-  </si>
-  <si>
-    <t>123246664</t>
-  </si>
-  <si>
-    <t>159484933</t>
-  </si>
-  <si>
-    <t>4041452</t>
-  </si>
-  <si>
-    <t>biogenic amines</t>
-  </si>
-  <si>
-    <t>128221460</t>
-  </si>
-  <si>
-    <t>118163882</t>
-  </si>
-  <si>
-    <t>4033963</t>
-  </si>
-  <si>
-    <t>elements</t>
-  </si>
-  <si>
-    <t>148095766</t>
-  </si>
-  <si>
-    <t>121779107</t>
-  </si>
-  <si>
-    <t>4028714</t>
-  </si>
-  <si>
-    <t>metronidazole</t>
-  </si>
-  <si>
-    <t>135477663</t>
-  </si>
-  <si>
-    <t>139747795</t>
-  </si>
-  <si>
-    <t>4028126</t>
-  </si>
-  <si>
-    <t>muscle</t>
-  </si>
-  <si>
-    <t>118386309</t>
-  </si>
-  <si>
-    <t>122019796</t>
-  </si>
-  <si>
-    <t>4027328</t>
-  </si>
-  <si>
-    <t>methylprednisolone</t>
-  </si>
-  <si>
-    <t>149916787</t>
-  </si>
-  <si>
-    <t>134191627</t>
-  </si>
-  <si>
-    <t>159430667</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>122519381</t>
-  </si>
-  <si>
-    <t>136041134</t>
-  </si>
-  <si>
-    <t>3781790</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>147304349</t>
-  </si>
-  <si>
-    <t>119314724</t>
-  </si>
-  <si>
-    <t>161237243</t>
-  </si>
-  <si>
-    <t>3777320</t>
-  </si>
-  <si>
-    <t>adolescent (age group)</t>
-  </si>
-  <si>
-    <t>123134555</t>
-  </si>
-  <si>
-    <t>186173933</t>
-  </si>
-  <si>
-    <t>147419453</t>
-  </si>
-  <si>
-    <t>120104101</t>
-  </si>
-  <si>
-    <t>120105258</t>
-  </si>
-  <si>
-    <t>3377529</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>187291108</t>
-  </si>
-  <si>
-    <t>122999354</t>
-  </si>
-  <si>
-    <t>142308633</t>
-  </si>
-  <si>
-    <t>300233</t>
-  </si>
-  <si>
-    <t>chlorides</t>
-  </si>
-  <si>
-    <t>176839714</t>
-  </si>
-  <si>
-    <t>131536373</t>
-  </si>
-  <si>
-    <t>281347</t>
-  </si>
-  <si>
-    <t>long-term care</t>
-  </si>
-  <si>
-    <t>130985746</t>
-  </si>
-  <si>
-    <t>130708602</t>
-  </si>
-  <si>
-    <t>278029</t>
-  </si>
-  <si>
-    <t>contraceptives, oral</t>
-  </si>
-  <si>
-    <t>134437422</t>
-  </si>
-  <si>
-    <t>134438527</t>
-  </si>
-  <si>
-    <t>134438907</t>
-  </si>
-  <si>
-    <t>130241178</t>
-  </si>
-  <si>
-    <t>193085650</t>
-  </si>
-  <si>
-    <t>273402</t>
-  </si>
-  <si>
-    <t>serum albumin, bovine</t>
-  </si>
-  <si>
-    <t>127332920</t>
-  </si>
-  <si>
-    <t>152470469</t>
-  </si>
-  <si>
-    <t>119076030</t>
-  </si>
-  <si>
-    <t>120957998</t>
-  </si>
-  <si>
-    <t>123629693</t>
-  </si>
-  <si>
-    <t>255998</t>
-  </si>
-  <si>
-    <t>nitric oxide synthase</t>
-  </si>
-  <si>
-    <t>174430703</t>
-  </si>
-  <si>
-    <t>131288445</t>
-  </si>
-  <si>
-    <t>2428153</t>
-  </si>
-  <si>
-    <t>albino mice</t>
-  </si>
-  <si>
-    <t>117707460</t>
-  </si>
-  <si>
-    <t>200096415</t>
-  </si>
-  <si>
-    <t>2396875</t>
-  </si>
-  <si>
-    <t>receptor</t>
-  </si>
-  <si>
-    <t>125098942</t>
-  </si>
-  <si>
-    <t>117710402</t>
-  </si>
-  <si>
-    <t>189157246</t>
-  </si>
-  <si>
-    <t>196841266</t>
-  </si>
-  <si>
-    <t>142068155</t>
-  </si>
-  <si>
-    <t>2395251</t>
-  </si>
-  <si>
-    <t>toxic effect</t>
-  </si>
-  <si>
-    <t>165828535</t>
-  </si>
-  <si>
-    <t>126439412</t>
-  </si>
-  <si>
-    <t>175895177</t>
-  </si>
-  <si>
-    <t>154107594</t>
+    <t>123562301</t>
+  </si>
+  <si>
+    <t>76737958</t>
+  </si>
+  <si>
+    <t>65681914</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>309.0</v>
+        <v>320.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2207,10 +2207,28 @@
       <c r="P2" t="s">
         <v>64</v>
       </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>271.0</v>
+        <v>212.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2222,10 +2240,10 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
@@ -2240,33 +2258,39 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
         <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>227.0</v>
+        <v>100.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -2278,13 +2302,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -2296,39 +2320,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
         <v>75</v>
-      </c>
-      <c r="N4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100.0</v>
+        <v>66.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -2340,13 +2346,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -2358,21 +2364,33 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2384,10 +2402,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -2402,33 +2420,21 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66.0</v>
+        <v>61.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2440,10 +2446,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -2458,33 +2464,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65.0</v>
+        <v>53.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -2496,13 +2490,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2514,21 +2508,51 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62.0</v>
+        <v>43.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2540,13 +2564,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2558,93 +2582,21 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" t="s">
-        <v>114</v>
-      </c>
-      <c r="V9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61.0</v>
+        <v>38.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2656,13 +2608,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -2674,21 +2626,21 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>53.0</v>
+        <v>31.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2700,13 +2652,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -2718,51 +2670,21 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" t="s">
-        <v>137</v>
-      </c>
-      <c r="P11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>139</v>
-      </c>
-      <c r="R11" t="s">
-        <v>140</v>
-      </c>
-      <c r="S11" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" t="s">
-        <v>122</v>
-      </c>
-      <c r="U11" t="s">
-        <v>142</v>
-      </c>
-      <c r="V11" t="s">
-        <v>68</v>
-      </c>
-      <c r="W11" t="s">
-        <v>143</v>
-      </c>
-      <c r="X11" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2774,13 +2696,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2792,21 +2714,27 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2818,13 +2746,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2836,21 +2764,21 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2862,13 +2790,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2880,21 +2808,21 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2906,13 +2834,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2924,57 +2852,45 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>146</v>
+      </c>
+      <c r="R15" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" t="s">
-        <v>162</v>
-      </c>
-      <c r="R15" t="s">
-        <v>89</v>
-      </c>
       <c r="S15" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="T15" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="U15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="V15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" t="s">
-        <v>166</v>
-      </c>
-      <c r="X15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2986,10 +2902,10 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
@@ -3004,21 +2920,21 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="M16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -3030,10 +2946,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -3048,27 +2964,21 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" t="s">
-        <v>177</v>
-      </c>
-      <c r="P17" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -3080,13 +2990,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -3098,16 +3008,40 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" t="s">
+        <v>112</v>
+      </c>
+      <c r="S18" t="s">
+        <v>166</v>
+      </c>
+      <c r="T18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>167</v>
+      </c>
+      <c r="V18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -3124,10 +3058,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
         <v>58</v>
@@ -3142,16 +3076,22 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -3168,13 +3108,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -3186,16 +3126,28 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -3212,10 +3164,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
@@ -3230,22 +3182,28 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="O21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>185</v>
+      </c>
+      <c r="R21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3262,10 +3220,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -3280,28 +3238,22 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>200</v>
-      </c>
-      <c r="R22" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -3318,10 +3270,10 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -3336,22 +3288,22 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M23" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -3368,10 +3320,10 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -3386,22 +3338,16 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O24" t="s">
-        <v>210</v>
-      </c>
-      <c r="P24" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -3418,10 +3364,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
@@ -3436,21 +3382,45 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="N25" t="s">
-        <v>140</v>
+        <v>161</v>
+      </c>
+      <c r="O25" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>205</v>
+      </c>
+      <c r="R25" t="s">
+        <v>112</v>
+      </c>
+      <c r="S25" t="s">
+        <v>206</v>
+      </c>
+      <c r="T25" t="s">
+        <v>110</v>
+      </c>
+      <c r="U25" t="s">
+        <v>207</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3462,13 +3432,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -3480,57 +3450,33 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="O26" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="Q26" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="R26" t="s">
-        <v>223</v>
-      </c>
-      <c r="S26" t="s">
-        <v>224</v>
-      </c>
-      <c r="T26" t="s">
-        <v>120</v>
-      </c>
-      <c r="U26" t="s">
-        <v>225</v>
-      </c>
-      <c r="V26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W26" t="s">
-        <v>226</v>
-      </c>
-      <c r="X26" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3542,57 +3488,39 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" t="s">
         <v>217</v>
       </c>
-      <c r="H27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" t="s">
-        <v>230</v>
-      </c>
-      <c r="L27" t="s">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s">
-        <v>231</v>
-      </c>
       <c r="N27" t="s">
-        <v>232</v>
-      </c>
-      <c r="O27" t="s">
-        <v>233</v>
-      </c>
-      <c r="P27" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>235</v>
-      </c>
-      <c r="R27" t="s">
-        <v>115</v>
-      </c>
-      <c r="S27" t="s">
-        <v>236</v>
-      </c>
-      <c r="T27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3604,13 +3532,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -3622,45 +3550,33 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="P28" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="Q28" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="R28" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" t="s">
-        <v>243</v>
-      </c>
-      <c r="T28" t="s">
-        <v>64</v>
-      </c>
-      <c r="U28" t="s">
-        <v>244</v>
-      </c>
-      <c r="V28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3672,10 +3588,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
@@ -3690,21 +3606,21 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3716,10 +3632,10 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
         <v>55</v>
@@ -3734,16 +3650,22 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" t="s">
         <v>68</v>
       </c>
-      <c r="M30" t="s">
-        <v>252</v>
-      </c>
-      <c r="N30" t="s">
-        <v>62</v>
+      <c r="O30" t="s">
+        <v>232</v>
+      </c>
+      <c r="P30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -3760,13 +3682,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -3778,22 +3700,22 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O31" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -3810,13 +3732,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3828,33 +3750,21 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s">
-        <v>122</v>
-      </c>
-      <c r="O32" t="s">
-        <v>262</v>
-      </c>
-      <c r="P32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>263</v>
-      </c>
-      <c r="R32" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3866,10 +3776,10 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -3884,16 +3794,28 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" t="s">
+        <v>246</v>
+      </c>
+      <c r="P33" t="s">
         <v>68</v>
       </c>
-      <c r="M33" t="s">
-        <v>267</v>
-      </c>
-      <c r="N33" t="s">
-        <v>62</v>
+      <c r="Q33" t="s">
+        <v>247</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -3910,13 +3832,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3928,28 +3850,34 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="N34" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O34" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="P34" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="Q34" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="R34" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="S34" t="s">
+        <v>256</v>
+      </c>
+      <c r="T34" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="35">
@@ -3966,13 +3894,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3984,40 +3912,16 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s">
-        <v>111</v>
-      </c>
-      <c r="O35" t="s">
-        <v>278</v>
-      </c>
-      <c r="P35" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>279</v>
-      </c>
-      <c r="R35" t="s">
-        <v>140</v>
-      </c>
-      <c r="S35" t="s">
-        <v>280</v>
-      </c>
-      <c r="T35" t="s">
-        <v>122</v>
-      </c>
-      <c r="U35" t="s">
-        <v>281</v>
-      </c>
-      <c r="V35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
@@ -4034,13 +3938,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -4052,39 +3956,27 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="M36" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="N36" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>288</v>
-      </c>
-      <c r="R36" t="s">
-        <v>68</v>
-      </c>
-      <c r="S36" t="s">
-        <v>289</v>
-      </c>
-      <c r="T36" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -4096,10 +3988,10 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
         <v>55</v>
@@ -4114,21 +4006,21 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s">
         <v>60</v>
       </c>
       <c r="M37" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -4140,13 +4032,13 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -4158,27 +4050,21 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" t="s">
-        <v>298</v>
-      </c>
-      <c r="P38" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -4190,13 +4076,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -4208,22 +4094,16 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="M39" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s">
-        <v>303</v>
-      </c>
-      <c r="O39" t="s">
-        <v>304</v>
-      </c>
-      <c r="P39" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -4240,13 +4120,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -4258,16 +4138,22 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="O40" t="s">
+        <v>286</v>
+      </c>
+      <c r="P40" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -4284,10 +4170,10 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G41" t="s">
         <v>58</v>
@@ -4302,16 +4188,16 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="M41" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
@@ -4328,10 +4214,10 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
         <v>55</v>
@@ -4346,16 +4232,16 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M42" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -4372,13 +4258,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -4390,27 +4276,21 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M43" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
-      </c>
-      <c r="O43" t="s">
-        <v>322</v>
-      </c>
-      <c r="P43" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -4422,13 +4302,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4440,21 +4320,33 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="N44" t="s">
-        <v>172</v>
+        <v>303</v>
+      </c>
+      <c r="O44" t="s">
+        <v>304</v>
+      </c>
+      <c r="P44" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>306</v>
+      </c>
+      <c r="R44" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -4466,13 +4358,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -4484,21 +4376,21 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -4510,13 +4402,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4528,21 +4420,39 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M46" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="N46" t="s">
-        <v>62</v>
+        <v>275</v>
+      </c>
+      <c r="O46" t="s">
+        <v>316</v>
+      </c>
+      <c r="P46" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>317</v>
+      </c>
+      <c r="R46" t="s">
+        <v>303</v>
+      </c>
+      <c r="S46" t="s">
+        <v>318</v>
+      </c>
+      <c r="T46" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -4554,13 +4464,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F47" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -4572,21 +4482,27 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="M47" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s">
-        <v>339</v>
+        <v>66</v>
+      </c>
+      <c r="O47" t="s">
+        <v>323</v>
+      </c>
+      <c r="P47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -4598,40 +4514,106 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" t="s">
+        <v>327</v>
+      </c>
+      <c r="N48" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48" t="s">
+        <v>328</v>
+      </c>
+      <c r="P48" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>329</v>
+      </c>
+      <c r="R48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S48" t="s">
+        <v>330</v>
+      </c>
+      <c r="T48" t="s">
+        <v>161</v>
+      </c>
+      <c r="U48" t="s">
+        <v>331</v>
+      </c>
+      <c r="V48" t="s">
+        <v>128</v>
+      </c>
+      <c r="W48" t="s">
+        <v>332</v>
+      </c>
+      <c r="X48" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK48" t="s">
         <v>340</v>
       </c>
-      <c r="F48" t="s">
-        <v>341</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K48" t="s">
-        <v>342</v>
-      </c>
-      <c r="L48" t="s">
-        <v>68</v>
-      </c>
-      <c r="M48" t="s">
-        <v>343</v>
-      </c>
-      <c r="N48" t="s">
-        <v>124</v>
-      </c>
-      <c r="O48" t="s">
-        <v>344</v>
-      </c>
-      <c r="P48" t="s">
-        <v>172</v>
+      <c r="AL48" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="49">
@@ -4648,58 +4630,40 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" t="s">
+        <v>344</v>
+      </c>
+      <c r="N49" t="s">
+        <v>62</v>
+      </c>
+      <c r="O49" t="s">
         <v>345</v>
       </c>
-      <c r="F49" t="s">
-        <v>346</v>
-      </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" t="s">
-        <v>347</v>
-      </c>
-      <c r="L49" t="s">
-        <v>109</v>
-      </c>
-      <c r="M49" t="s">
-        <v>348</v>
-      </c>
-      <c r="N49" t="s">
-        <v>349</v>
-      </c>
-      <c r="O49" t="s">
-        <v>350</v>
-      </c>
       <c r="P49" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>351</v>
-      </c>
-      <c r="R49" t="s">
-        <v>140</v>
-      </c>
-      <c r="S49" t="s">
-        <v>352</v>
-      </c>
-      <c r="T49" t="s">
-        <v>68</v>
-      </c>
-      <c r="U49" t="s">
-        <v>353</v>
-      </c>
-      <c r="V49" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
@@ -4716,13 +4680,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F50" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4734,34 +4698,28 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="M50" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P50" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="Q50" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R50" t="s">
-        <v>124</v>
-      </c>
-      <c r="S50" t="s">
-        <v>361</v>
-      </c>
-      <c r="T50" t="s">
-        <v>362</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
@@ -4778,13 +4736,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4796,22 +4754,28 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M51" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O51" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="P51" t="s">
-        <v>89</v>
+        <v>334</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>357</v>
+      </c>
+      <c r="R51" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="52">
@@ -4828,13 +4792,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4846,52 +4810,28 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="M52" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="N52" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="O52" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P52" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Q52" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="R52" t="s">
-        <v>68</v>
-      </c>
-      <c r="S52" t="s">
-        <v>374</v>
-      </c>
-      <c r="T52" t="s">
-        <v>362</v>
-      </c>
-      <c r="U52" t="s">
-        <v>375</v>
-      </c>
-      <c r="V52" t="s">
-        <v>124</v>
-      </c>
-      <c r="W52" t="s">
-        <v>376</v>
-      </c>
-      <c r="X52" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
@@ -4908,13 +4848,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F53" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -4926,33 +4866,33 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M53" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="N53" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="P53" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Q53" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="R53" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -4964,13 +4904,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F54" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -4982,33 +4922,27 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="L54" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="N54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O54" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="P54" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>389</v>
-      </c>
-      <c r="R54" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -5020,10 +4954,10 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F55" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G55" t="s">
         <v>52</v>
@@ -5038,27 +4972,21 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="M55" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="N55" t="s">
-        <v>124</v>
-      </c>
-      <c r="O55" t="s">
-        <v>394</v>
-      </c>
-      <c r="P55" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -5070,13 +4998,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F56" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -5088,28 +5016,28 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="N56" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="O56" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="P56" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="Q56" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="R56" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
@@ -5126,10 +5054,10 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F57" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G57" t="s">
         <v>52</v>
@@ -5144,22 +5072,52 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="M57" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="N57" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="O57" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>102</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>390</v>
+      </c>
+      <c r="R57" t="s">
+        <v>305</v>
+      </c>
+      <c r="S57" t="s">
+        <v>391</v>
+      </c>
+      <c r="T57" t="s">
+        <v>149</v>
+      </c>
+      <c r="U57" t="s">
+        <v>392</v>
+      </c>
+      <c r="V57" t="s">
+        <v>112</v>
+      </c>
+      <c r="W57" t="s">
+        <v>393</v>
+      </c>
+      <c r="X57" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -5176,10 +5134,10 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F58" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
         <v>52</v>
@@ -5194,40 +5152,22 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="M58" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="N58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O58" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P58" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>411</v>
-      </c>
-      <c r="R58" t="s">
-        <v>120</v>
-      </c>
-      <c r="S58" t="s">
-        <v>412</v>
-      </c>
-      <c r="T58" t="s">
-        <v>68</v>
-      </c>
-      <c r="U58" t="s">
-        <v>413</v>
-      </c>
-      <c r="V58" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
@@ -5244,13 +5184,13 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="H59" t="s">
         <v>56</v>
@@ -5262,16 +5202,34 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L59" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="M59" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N59" t="s">
-        <v>124</v>
+        <v>405</v>
+      </c>
+      <c r="O59" t="s">
+        <v>406</v>
+      </c>
+      <c r="P59" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>407</v>
+      </c>
+      <c r="R59" t="s">
+        <v>252</v>
+      </c>
+      <c r="S59" t="s">
+        <v>408</v>
+      </c>
+      <c r="T59" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -5288,10 +5246,10 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G60" t="s">
         <v>52</v>
@@ -5306,28 +5264,22 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="M60" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O60" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="P60" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>423</v>
-      </c>
-      <c r="R60" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
@@ -5344,13 +5296,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -5362,22 +5314,16 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="M61" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="N61" t="s">
-        <v>111</v>
-      </c>
-      <c r="O61" t="s">
-        <v>428</v>
-      </c>
-      <c r="P61" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
@@ -5394,10 +5340,10 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G62" t="s">
         <v>55</v>
@@ -5412,28 +5358,16 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M62" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="N62" t="s">
-        <v>60</v>
-      </c>
-      <c r="O62" t="s">
-        <v>433</v>
-      </c>
-      <c r="P62" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>434</v>
-      </c>
-      <c r="R62" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
@@ -5450,13 +5384,13 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F63" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
         <v>56</v>
@@ -5468,16 +5402,16 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M63" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="N63" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64">
@@ -5494,13 +5428,13 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -5512,16 +5446,28 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M64" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="N64" t="s">
-        <v>62</v>
+        <v>334</v>
+      </c>
+      <c r="O64" t="s">
+        <v>430</v>
+      </c>
+      <c r="P64" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>431</v>
+      </c>
+      <c r="R64" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="65">
@@ -5538,13 +5484,13 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s">
         <v>56</v>
@@ -5556,16 +5502,16 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M65" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="N65" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66">
@@ -5582,13 +5528,13 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F66" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="H66" t="s">
         <v>56</v>
@@ -5600,33 +5546,39 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="M66" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="N66" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="O66" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="P66" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="Q66" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="R66" t="s">
-        <v>68</v>
+        <v>135</v>
+      </c>
+      <c r="S66" t="s">
+        <v>442</v>
+      </c>
+      <c r="T66" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B67" t="s">
         <v>50</v>
@@ -5638,13 +5590,13 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F67" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
         <v>56</v>
@@ -5656,21 +5608,33 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="M67" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N67" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="O67" t="s">
+        <v>447</v>
+      </c>
+      <c r="P67" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>448</v>
+      </c>
+      <c r="R67" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -5682,13 +5646,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F68" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -5700,34 +5664,22 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M68" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="N68" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="O68" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P68" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>462</v>
-      </c>
-      <c r="R68" t="s">
-        <v>113</v>
-      </c>
-      <c r="S68" t="s">
-        <v>463</v>
-      </c>
-      <c r="T68" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
@@ -5744,13 +5696,13 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F69" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
@@ -5762,28 +5714,28 @@
         <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L69" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="M69" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="N69" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="O69" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="P69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q69" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="R69" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70">
@@ -5800,13 +5752,13 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F70" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G70" t="s">
-        <v>55</v>
+        <v>462</v>
       </c>
       <c r="H70" t="s">
         <v>56</v>
@@ -5818,22 +5770,16 @@
         <v>58</v>
       </c>
       <c r="K70" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M70" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="N70" t="s">
-        <v>122</v>
-      </c>
-      <c r="O70" t="s">
-        <v>474</v>
-      </c>
-      <c r="P70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
@@ -5850,13 +5796,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G71" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -5868,28 +5814,22 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s">
-        <v>219</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="O71" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P71" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>480</v>
-      </c>
-      <c r="R71" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
@@ -5906,13 +5846,13 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F72" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G72" t="s">
-        <v>483</v>
+        <v>250</v>
       </c>
       <c r="H72" t="s">
         <v>56</v>
@@ -5924,16 +5864,16 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="N72" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
@@ -5950,10 +5890,10 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="G73" t="s">
         <v>58</v>
@@ -5968,22 +5908,16 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="L73" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="M73" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="N73" t="s">
-        <v>122</v>
-      </c>
-      <c r="O73" t="s">
-        <v>490</v>
-      </c>
-      <c r="P73" t="s">
-        <v>113</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74">
@@ -6000,10 +5934,10 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F74" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G74" t="s">
         <v>52</v>
@@ -6018,28 +5952,34 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M74" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="O74" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="P74" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="Q74" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="R74" t="s">
-        <v>362</v>
+        <v>128</v>
+      </c>
+      <c r="S74" t="s">
+        <v>486</v>
+      </c>
+      <c r="T74" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75">
@@ -6056,34 +5996,70 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F75" t="s">
+        <v>488</v>
+      </c>
+      <c r="G75" t="s">
+        <v>250</v>
+      </c>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" t="s">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s">
+        <v>128</v>
+      </c>
+      <c r="M75" t="s">
+        <v>490</v>
+      </c>
+      <c r="N75" t="s">
+        <v>252</v>
+      </c>
+      <c r="O75" t="s">
+        <v>491</v>
+      </c>
+      <c r="P75" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>492</v>
+      </c>
+      <c r="R75" t="s">
+        <v>493</v>
+      </c>
+      <c r="S75" t="s">
+        <v>494</v>
+      </c>
+      <c r="T75" t="s">
+        <v>149</v>
+      </c>
+      <c r="U75" t="s">
+        <v>495</v>
+      </c>
+      <c r="V75" t="s">
+        <v>168</v>
+      </c>
+      <c r="W75" t="s">
+        <v>496</v>
+      </c>
+      <c r="X75" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y75" t="s">
         <v>497</v>
       </c>
-      <c r="F75" t="s">
-        <v>498</v>
-      </c>
-      <c r="G75" t="s">
-        <v>217</v>
-      </c>
-      <c r="H75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" t="s">
-        <v>58</v>
-      </c>
-      <c r="K75" t="s">
-        <v>499</v>
-      </c>
-      <c r="L75" t="s">
-        <v>219</v>
-      </c>
-      <c r="M75" t="s">
-        <v>500</v>
-      </c>
-      <c r="N75" t="s">
-        <v>68</v>
+      <c r="Z75" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="76">
@@ -6100,34 +6076,40 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
+        <v>498</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J76" t="s">
+        <v>58</v>
+      </c>
+      <c r="K76" t="s">
+        <v>500</v>
+      </c>
+      <c r="L76" t="s">
+        <v>77</v>
+      </c>
+      <c r="M76" t="s">
         <v>501</v>
       </c>
-      <c r="F76" t="s">
+      <c r="N76" t="s">
+        <v>68</v>
+      </c>
+      <c r="O76" t="s">
         <v>502</v>
       </c>
-      <c r="G76" t="s">
-        <v>58</v>
-      </c>
-      <c r="H76" t="s">
-        <v>56</v>
-      </c>
-      <c r="I76" t="s">
-        <v>57</v>
-      </c>
-      <c r="J76" t="s">
-        <v>58</v>
-      </c>
-      <c r="K76" t="s">
-        <v>503</v>
-      </c>
-      <c r="L76" t="s">
-        <v>68</v>
-      </c>
-      <c r="M76" t="s">
-        <v>504</v>
-      </c>
-      <c r="N76" t="s">
-        <v>505</v>
+      <c r="P76" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="77">
@@ -6144,52 +6126,40 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
+        <v>503</v>
+      </c>
+      <c r="F77" t="s">
+        <v>504</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s">
+        <v>57</v>
+      </c>
+      <c r="J77" t="s">
+        <v>58</v>
+      </c>
+      <c r="K77" t="s">
+        <v>505</v>
+      </c>
+      <c r="L77" t="s">
+        <v>102</v>
+      </c>
+      <c r="M77" t="s">
         <v>506</v>
       </c>
-      <c r="F77" t="s">
+      <c r="N77" t="s">
+        <v>104</v>
+      </c>
+      <c r="O77" t="s">
         <v>507</v>
       </c>
-      <c r="G77" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" t="s">
-        <v>57</v>
-      </c>
-      <c r="J77" t="s">
-        <v>58</v>
-      </c>
-      <c r="K77" t="s">
-        <v>508</v>
-      </c>
-      <c r="L77" t="s">
-        <v>113</v>
-      </c>
-      <c r="M77" t="s">
-        <v>509</v>
-      </c>
-      <c r="N77" t="s">
-        <v>115</v>
-      </c>
-      <c r="O77" t="s">
-        <v>510</v>
-      </c>
       <c r="P77" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>511</v>
-      </c>
-      <c r="R77" t="s">
-        <v>111</v>
-      </c>
-      <c r="S77" t="s">
-        <v>512</v>
-      </c>
-      <c r="T77" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78">
@@ -6206,10 +6176,10 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F78" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G78" t="s">
         <v>52</v>
@@ -6224,22 +6194,16 @@
         <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L78" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="M78" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="N78" t="s">
-        <v>113</v>
-      </c>
-      <c r="O78" t="s">
-        <v>517</v>
-      </c>
-      <c r="P78" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79">
@@ -6256,10 +6220,10 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F79" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
         <v>52</v>
@@ -6274,16 +6238,22 @@
         <v>58</v>
       </c>
       <c r="K79" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="M79" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="N79" t="s">
-        <v>362</v>
+        <v>112</v>
+      </c>
+      <c r="O79" t="s">
+        <v>516</v>
+      </c>
+      <c r="P79" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="80">
@@ -6300,10 +6270,10 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F80" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G80" t="s">
         <v>52</v>
@@ -6318,22 +6288,16 @@
         <v>58</v>
       </c>
       <c r="K80" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L80" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="M80" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N80" t="s">
-        <v>124</v>
-      </c>
-      <c r="O80" t="s">
-        <v>526</v>
-      </c>
-      <c r="P80" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81">
@@ -6350,13 +6314,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F81" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G81" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -6368,16 +6332,22 @@
         <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L81" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="M81" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N81" t="s">
-        <v>362</v>
+        <v>102</v>
+      </c>
+      <c r="O81" t="s">
+        <v>525</v>
+      </c>
+      <c r="P81" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="82">
@@ -6394,13 +6364,13 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F82" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G82" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s">
         <v>56</v>
@@ -6412,22 +6382,16 @@
         <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L82" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="M82" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="N82" t="s">
-        <v>107</v>
-      </c>
-      <c r="O82" t="s">
-        <v>535</v>
-      </c>
-      <c r="P82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
@@ -6444,10 +6408,10 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F83" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G83" t="s">
         <v>52</v>
@@ -6462,16 +6426,28 @@
         <v>58</v>
       </c>
       <c r="K83" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L83" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="M83" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N83" t="s">
-        <v>124</v>
+        <v>275</v>
+      </c>
+      <c r="O83" t="s">
+        <v>534</v>
+      </c>
+      <c r="P83" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>535</v>
+      </c>
+      <c r="R83" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -6488,46 +6464,40 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
+        <v>536</v>
+      </c>
+      <c r="F84" t="s">
+        <v>537</v>
+      </c>
+      <c r="G84" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" t="s">
+        <v>58</v>
+      </c>
+      <c r="K84" t="s">
+        <v>538</v>
+      </c>
+      <c r="L84" t="s">
+        <v>64</v>
+      </c>
+      <c r="M84" t="s">
+        <v>539</v>
+      </c>
+      <c r="N84" t="s">
+        <v>60</v>
+      </c>
+      <c r="O84" t="s">
         <v>540</v>
       </c>
-      <c r="F84" t="s">
-        <v>541</v>
-      </c>
-      <c r="G84" t="s">
-        <v>52</v>
-      </c>
-      <c r="H84" t="s">
-        <v>56</v>
-      </c>
-      <c r="I84" t="s">
-        <v>57</v>
-      </c>
-      <c r="J84" t="s">
-        <v>58</v>
-      </c>
-      <c r="K84" t="s">
-        <v>542</v>
-      </c>
-      <c r="L84" t="s">
-        <v>349</v>
-      </c>
-      <c r="M84" t="s">
-        <v>543</v>
-      </c>
-      <c r="N84" t="s">
-        <v>68</v>
-      </c>
-      <c r="O84" t="s">
-        <v>544</v>
-      </c>
       <c r="P84" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>545</v>
-      </c>
-      <c r="R84" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85">
@@ -6544,40 +6514,52 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
+        <v>541</v>
+      </c>
+      <c r="F85" t="s">
+        <v>542</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" t="s">
+        <v>543</v>
+      </c>
+      <c r="L85" t="s">
+        <v>303</v>
+      </c>
+      <c r="M85" t="s">
+        <v>544</v>
+      </c>
+      <c r="N85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O85" t="s">
+        <v>545</v>
+      </c>
+      <c r="P85" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q85" t="s">
         <v>546</v>
       </c>
-      <c r="F85" t="s">
+      <c r="R85" t="s">
+        <v>75</v>
+      </c>
+      <c r="S85" t="s">
         <v>547</v>
       </c>
-      <c r="G85" t="s">
-        <v>58</v>
-      </c>
-      <c r="H85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I85" t="s">
-        <v>57</v>
-      </c>
-      <c r="J85" t="s">
-        <v>58</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="T85" t="s">
         <v>548</v>
-      </c>
-      <c r="L85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M85" t="s">
-        <v>549</v>
-      </c>
-      <c r="N85" t="s">
-        <v>122</v>
-      </c>
-      <c r="O85" t="s">
-        <v>550</v>
-      </c>
-      <c r="P85" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="86">
@@ -6594,52 +6576,34 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
+        <v>549</v>
+      </c>
+      <c r="F86" t="s">
+        <v>550</v>
+      </c>
+      <c r="G86" t="s">
+        <v>462</v>
+      </c>
+      <c r="H86" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" t="s">
         <v>551</v>
       </c>
-      <c r="F86" t="s">
+      <c r="L86" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" t="s">
         <v>552</v>
       </c>
-      <c r="G86" t="s">
-        <v>82</v>
-      </c>
-      <c r="H86" t="s">
-        <v>56</v>
-      </c>
-      <c r="I86" t="s">
-        <v>57</v>
-      </c>
-      <c r="J86" t="s">
-        <v>58</v>
-      </c>
-      <c r="K86" t="s">
-        <v>553</v>
-      </c>
-      <c r="L86" t="s">
-        <v>359</v>
-      </c>
-      <c r="M86" t="s">
-        <v>554</v>
-      </c>
       <c r="N86" t="s">
-        <v>321</v>
-      </c>
-      <c r="O86" t="s">
-        <v>555</v>
-      </c>
-      <c r="P86" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>556</v>
-      </c>
-      <c r="R86" t="s">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s">
-        <v>557</v>
-      </c>
-      <c r="T86" t="s">
-        <v>558</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87">
@@ -6656,13 +6620,13 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F87" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G87" t="s">
-        <v>483</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s">
         <v>56</v>
@@ -6674,16 +6638,16 @@
         <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L87" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M87" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="N87" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88">
@@ -6700,10 +6664,10 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F88" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G88" t="s">
         <v>52</v>
@@ -6718,16 +6682,16 @@
         <v>58</v>
       </c>
       <c r="K88" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="L88" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="M88" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="N88" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
@@ -6744,10 +6708,10 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F89" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G89" t="s">
         <v>52</v>
@@ -6762,16 +6726,16 @@
         <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N89" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
@@ -6788,13 +6752,13 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F90" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G90" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
         <v>56</v>
@@ -6806,16 +6770,16 @@
         <v>58</v>
       </c>
       <c r="K90" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L90" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="M90" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="N90" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91">
@@ -6832,34 +6796,70 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
+        <v>569</v>
+      </c>
+      <c r="F91" t="s">
+        <v>570</v>
+      </c>
+      <c r="G91" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91" t="s">
+        <v>58</v>
+      </c>
+      <c r="K91" t="s">
+        <v>571</v>
+      </c>
+      <c r="L91" t="s">
+        <v>468</v>
+      </c>
+      <c r="M91" t="s">
+        <v>572</v>
+      </c>
+      <c r="N91" t="s">
+        <v>77</v>
+      </c>
+      <c r="O91" t="s">
+        <v>573</v>
+      </c>
+      <c r="P91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>574</v>
+      </c>
+      <c r="R91" t="s">
+        <v>70</v>
+      </c>
+      <c r="S91" t="s">
         <v>575</v>
       </c>
-      <c r="F91" t="s">
+      <c r="T91" t="s">
+        <v>62</v>
+      </c>
+      <c r="U91" t="s">
         <v>576</v>
       </c>
-      <c r="G91" t="s">
-        <v>82</v>
-      </c>
-      <c r="H91" t="s">
-        <v>56</v>
-      </c>
-      <c r="I91" t="s">
-        <v>57</v>
-      </c>
-      <c r="J91" t="s">
-        <v>58</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="V91" t="s">
+        <v>64</v>
+      </c>
+      <c r="W91" t="s">
         <v>577</v>
       </c>
-      <c r="L91" t="s">
-        <v>76</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="X91" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y91" t="s">
         <v>578</v>
       </c>
-      <c r="N91" t="s">
-        <v>105</v>
+      <c r="Z91" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="92">
@@ -6897,19 +6897,19 @@
         <v>581</v>
       </c>
       <c r="L92" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M92" t="s">
         <v>582</v>
       </c>
       <c r="N92" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="O92" t="s">
         <v>583</v>
       </c>
       <c r="P92" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
@@ -6947,13 +6947,13 @@
         <v>586</v>
       </c>
       <c r="L93" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M93" t="s">
         <v>587</v>
       </c>
       <c r="N93" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
@@ -6976,7 +6976,7 @@
         <v>589</v>
       </c>
       <c r="G94" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H94" t="s">
         <v>56</v>
@@ -6991,19 +6991,31 @@
         <v>590</v>
       </c>
       <c r="L94" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="M94" t="s">
         <v>591</v>
       </c>
       <c r="N94" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="O94" t="s">
         <v>592</v>
       </c>
       <c r="P94" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>593</v>
+      </c>
+      <c r="R94" t="s">
+        <v>64</v>
+      </c>
+      <c r="S94" t="s">
+        <v>594</v>
+      </c>
+      <c r="T94" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="95">
@@ -7020,10 +7032,10 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F95" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G95" t="s">
         <v>55</v>
@@ -7038,34 +7050,28 @@
         <v>58</v>
       </c>
       <c r="K95" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L95" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" t="s">
+        <v>598</v>
+      </c>
+      <c r="N95" t="s">
+        <v>66</v>
+      </c>
+      <c r="O95" t="s">
+        <v>599</v>
+      </c>
+      <c r="P95" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>600</v>
+      </c>
+      <c r="R95" t="s">
         <v>68</v>
-      </c>
-      <c r="M95" t="s">
-        <v>596</v>
-      </c>
-      <c r="N95" t="s">
-        <v>122</v>
-      </c>
-      <c r="O95" t="s">
-        <v>597</v>
-      </c>
-      <c r="P95" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>598</v>
-      </c>
-      <c r="R95" t="s">
-        <v>62</v>
-      </c>
-      <c r="S95" t="s">
-        <v>599</v>
-      </c>
-      <c r="T95" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="96">
@@ -7082,10 +7088,10 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F96" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G96" t="s">
         <v>52</v>
@@ -7100,22 +7106,22 @@
         <v>58</v>
       </c>
       <c r="K96" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L96" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M96" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N96" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O96" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P96" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97">
@@ -7132,10 +7138,10 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F97" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G97" t="s">
         <v>52</v>
@@ -7150,16 +7156,16 @@
         <v>58</v>
       </c>
       <c r="K97" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L97" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N97" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98">
@@ -7176,13 +7182,13 @@
         <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F98" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G98" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="H98" t="s">
         <v>56</v>
@@ -7194,16 +7200,16 @@
         <v>58</v>
       </c>
       <c r="K98" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L98" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="M98" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N98" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -7220,10 +7226,10 @@
         <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F99" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G99" t="s">
         <v>52</v>
@@ -7238,34 +7244,34 @@
         <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L99" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="M99" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N99" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O99" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P99" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="Q99" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="R99" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S99" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T99" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100">
@@ -7282,10 +7288,10 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F100" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G100" t="s">
         <v>52</v>
@@ -7300,34 +7306,34 @@
         <v>58</v>
       </c>
       <c r="K100" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L100" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M100" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N100" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="O100" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P100" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="Q100" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="R100" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="S100" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T100" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
@@ -7344,10 +7350,10 @@
         <v>52</v>
       </c>
       <c r="E101" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F101" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G101" t="s">
         <v>52</v>
@@ -7362,16 +7368,16 @@
         <v>58</v>
       </c>
       <c r="K101" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L101" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="M101" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N101" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102">
@@ -7388,10 +7394,10 @@
         <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F102" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G102" t="s">
         <v>55</v>
@@ -7406,16 +7412,16 @@
         <v>58</v>
       </c>
       <c r="K102" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L102" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M102" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N102" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103">
@@ -7432,10 +7438,10 @@
         <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F103" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G103" t="s">
         <v>52</v>
@@ -7450,34 +7456,34 @@
         <v>58</v>
       </c>
       <c r="K103" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L103" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M103" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N103" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="O103" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P103" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="Q103" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R103" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="S103" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T103" t="s">
-        <v>359</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
@@ -7494,13 +7500,13 @@
         <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F104" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G104" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H104" t="s">
         <v>56</v>
@@ -7512,28 +7518,22 @@
         <v>58</v>
       </c>
       <c r="K104" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L104" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="M104" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N104" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O104" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P104" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>647</v>
-      </c>
-      <c r="R104" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
